--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject13.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject13.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.92125172924424881</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -215,7 +215,7 @@
         <v>0</v>
       </c>
       <c r="AD1" s="0">
-        <v>1</v>
+        <v>0.97262432735917359</v>
       </c>
       <c r="AE1" s="0">
         <v>0</v>
@@ -230,7 +230,7 @@
         <v>0</v>
       </c>
       <c r="AI1" s="0">
-        <v>0</v>
+        <v>0.64043510519355462</v>
       </c>
       <c r="AJ1" s="0">
         <v>0</v>
@@ -293,13 +293,13 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>0</v>
+        <v>0.51860389007876562</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
       </c>
       <c r="BF1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG1" s="0">
         <v>0</v>
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -349,7 +349,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="0">
-        <v>0</v>
+        <v>0.61063102001446867</v>
       </c>
       <c r="AF2" s="0">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="BH2" s="0">
-        <v>0</v>
+        <v>0.6725938755650045</v>
       </c>
       <c r="BI2" s="0">
         <v>0</v>
@@ -540,16 +540,16 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.96741979120513899</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.84345454920206375</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="0">
-        <v>0</v>
+        <v>0.50212396942231841</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>0</v>
       </c>
       <c r="AA3" s="0">
-        <v>0</v>
+        <v>0.64705813378909771</v>
       </c>
       <c r="AB3" s="0">
         <v>0</v>
       </c>
       <c r="AC3" s="0">
-        <v>0</v>
+        <v>0.84111947805488663</v>
       </c>
       <c r="AD3" s="0">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="0">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="0">
-        <v>0</v>
+        <v>0.55820336633880807</v>
       </c>
       <c r="AS3" s="0">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="AV3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" s="0">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="BB3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="0">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="BP3" s="0">
-        <v>0</v>
+        <v>0.61522232046724956</v>
       </c>
     </row>
     <row r="4">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.58381661614330649</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="0">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="0">
-        <v>0</v>
+        <v>0.75739267416087597</v>
       </c>
       <c r="AK4" s="0">
         <v>0</v>
@@ -887,13 +887,13 @@
         <v>0</v>
       </c>
       <c r="AV4" s="0">
-        <v>0</v>
+        <v>0.91858340057547594</v>
       </c>
       <c r="AW4" s="0">
         <v>0</v>
       </c>
       <c r="AX4" s="0">
-        <v>0</v>
+        <v>0.90364187071349178</v>
       </c>
       <c r="AY4" s="0">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="0">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="0">
-        <v>0</v>
+        <v>0.74291840323938096</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="0">
-        <v>0</v>
+        <v>0.83981865845490289</v>
       </c>
       <c r="Q5" s="0">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="AH5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="0">
         <v>0</v>
       </c>
       <c r="AJ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="0">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="0">
-        <v>0</v>
+        <v>0.64627546504165245</v>
       </c>
       <c r="BA5" s="0">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="0">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>0</v>
+        <v>0.70607758576492752</v>
       </c>
       <c r="BH5" s="0">
         <v>0</v>
@@ -1161,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0">
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="AD6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="0">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="0">
-        <v>0</v>
+        <v>0.95676278705551376</v>
       </c>
       <c r="AM6" s="0">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="0">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="0">
-        <v>0</v>
+        <v>0.92000482092314007</v>
       </c>
       <c r="BD6" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>0</v>
+        <v>0.68886136289023514</v>
       </c>
     </row>
     <row r="7">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="0">
-        <v>0</v>
+        <v>0.80377075344077076</v>
       </c>
       <c r="Q7" s="0">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="0">
-        <v>0</v>
+        <v>0.95434457892041857</v>
       </c>
       <c r="V7" s="0">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="0">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="0">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="0">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="0">
-        <v>0</v>
+        <v>0.98782612904160672</v>
       </c>
       <c r="BB7" s="0">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="0">
-        <v>0</v>
+        <v>0.7204567254880313</v>
       </c>
       <c r="BJ7" s="0">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>0.59869842398493556</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.66574116328681043</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="0">
-        <v>0</v>
+        <v>0.96761269856471177</v>
       </c>
       <c r="Z8" s="0">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="0">
-        <v>0</v>
+        <v>0.99191241794941276</v>
       </c>
       <c r="AD8" s="0">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="0">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="0">
-        <v>0</v>
+        <v>0.58274631509293617</v>
       </c>
       <c r="AT8" s="0">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>0</v>
+        <v>0.73828883310873095</v>
       </c>
       <c r="AX8" s="0">
         <v>0</v>
@@ -1756,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="BK8" s="0">
-        <v>0</v>
+        <v>0.96778363965777425</v>
       </c>
       <c r="BL8" s="0">
-        <v>0</v>
+        <v>0.93759521000310886</v>
       </c>
       <c r="BM8" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.52404653363918252</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
       </c>
       <c r="M9" s="0">
-        <v>0</v>
+        <v>0.64888010963196763</v>
       </c>
       <c r="N9" s="0">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="0">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="0">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="0">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="BE9" s="0">
-        <v>0</v>
+        <v>0.63999410313778271</v>
       </c>
       <c r="BF9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="0">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="BB10" s="0">
-        <v>0</v>
+        <v>0.8930563346290501</v>
       </c>
       <c r="BC10" s="0">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="BH10" s="0">
-        <v>0</v>
+        <v>0.85428119263253699</v>
       </c>
       <c r="BI10" s="0">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="0">
-        <v>0</v>
+        <v>0.58650767363380285</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="0">
-        <v>0</v>
+        <v>0.55368730836901481</v>
       </c>
       <c r="AG11" s="0">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="0">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="0">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="BB11" s="0">
-        <v>0</v>
+        <v>0.77901700402224106</v>
       </c>
       <c r="BC11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>0</v>
+        <v>0.74394448425742021</v>
       </c>
       <c r="S12" s="0">
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="0">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="0">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="0">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="0">
-        <v>0</v>
+        <v>0.81165335098460067</v>
       </c>
       <c r="AT12" s="0">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>0</v>
+        <v>0.54468457631884604</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
       </c>
       <c r="AY12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="0">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="BJ12" s="0">
-        <v>0</v>
+        <v>0.93754350186068658</v>
       </c>
       <c r="BK12" s="0">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="0">
-        <v>0</v>
+        <v>0.55362130667664511</v>
       </c>
       <c r="J13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.95211631032171917</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2666,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="W13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="0">
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>0</v>
+        <v>0.85448025077759104</v>
       </c>
       <c r="Z13" s="0">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="0">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AM13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="0">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="BD13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="0">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="0">
-        <v>0</v>
+        <v>0.98371646865993445</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="0">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="0">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>0</v>
+        <v>0.81242757799766341</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="0">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="BP14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3042,13 +3042,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="0">
-        <v>0</v>
+        <v>0.92383390101454321</v>
       </c>
       <c r="L15" s="0">
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.83341076830408778</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="0">
         <v>0</v>
@@ -3147,16 +3147,16 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
       </c>
       <c r="AV15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="0">
-        <v>0</v>
+        <v>0.58177890269738475</v>
       </c>
       <c r="AX15" s="0">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="0">
-        <v>0</v>
+        <v>0.69147309004419544</v>
       </c>
       <c r="F16" s="0">
         <v>0</v>
       </c>
       <c r="G16" s="0">
-        <v>0</v>
+        <v>0.56162400705815507</v>
       </c>
       <c r="H16" s="0">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.94016375257205831</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="0">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>0</v>
+        <v>0.56169987895036866</v>
       </c>
       <c r="AI16" s="0">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="0">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AY16" s="0">
-        <v>0</v>
+        <v>0.70201599185253216</v>
       </c>
       <c r="AZ16" s="0">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="V17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="0">
-        <v>0</v>
+        <v>0.62539387348972297</v>
       </c>
       <c r="X17" s="0">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="AT17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="0">
         <v>0</v>
@@ -3616,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="BM17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="0">
-        <v>0</v>
+        <v>0.72681876935267098</v>
       </c>
       <c r="BO17" s="0">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="0">
-        <v>0</v>
+        <v>0.89760865954429303</v>
       </c>
       <c r="M18" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.58330765657642347</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="0">
-        <v>0</v>
+        <v>0.96620871371629824</v>
       </c>
       <c r="W18" s="0">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="0">
-        <v>0</v>
+        <v>0.53746831428057151</v>
       </c>
       <c r="AO18" s="0">
         <v>0</v>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="AZ18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="0">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>0</v>
+        <v>0.87661766456570478</v>
       </c>
       <c r="O19" s="0">
         <v>0</v>
@@ -3887,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="AX19" s="0">
-        <v>0</v>
+        <v>0.99079001351526852</v>
       </c>
       <c r="AY19" s="0">
-        <v>0</v>
+        <v>0.50791598939150373</v>
       </c>
       <c r="AZ19" s="0">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="BB19" s="0">
-        <v>0</v>
+        <v>0.7131743815782029</v>
       </c>
       <c r="BC19" s="0">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="BH19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="0">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
-        <v>0</v>
+        <v>0.56863599943361254</v>
       </c>
       <c r="X20" s="0">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="0">
-        <v>0</v>
+        <v>0.93487439631897407</v>
       </c>
       <c r="AR20" s="0">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AV20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="0">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="0">
-        <v>0</v>
+        <v>0.65925395456042146</v>
       </c>
       <c r="BD20" s="0">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="0">
-        <v>0</v>
+        <v>0.61931357141274002</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.69718433863139651</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="0">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>0</v>
+        <v>0.62504264549809163</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="0">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="0">
-        <v>0</v>
+        <v>0.62538169999967552</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
@@ -4502,19 +4502,19 @@
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>0</v>
+        <v>0.85477711294942216</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.90255814318588601</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="0">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="0">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="0">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="0">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="0">
-        <v>0</v>
+        <v>0.85921464394131353</v>
       </c>
       <c r="BB22" s="0">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="BH22" s="0">
-        <v>0</v>
+        <v>0.55906258903937112</v>
       </c>
       <c r="BI22" s="0">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="0">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="0">
-        <v>0</v>
+        <v>0.93909208890591378</v>
       </c>
       <c r="R23" s="0">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>0</v>
+        <v>0.74021495740510457</v>
       </c>
       <c r="U23" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.69949610664037132</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4744,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="AC23" s="0">
-        <v>0</v>
+        <v>0.7383413745281191</v>
       </c>
       <c r="AD23" s="0">
-        <v>0</v>
+        <v>0.79564868878137518</v>
       </c>
       <c r="AE23" s="0">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="AV23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="0">
         <v>0</v>
@@ -4846,13 +4846,13 @@
         <v>0</v>
       </c>
       <c r="BK23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL23" s="0">
         <v>0</v>
       </c>
       <c r="BM23" s="0">
-        <v>0</v>
+        <v>0.53326542531322951</v>
       </c>
       <c r="BN23" s="0">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.97970065688562158</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,13 +4941,13 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
       </c>
       <c r="AB24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="0">
         <v>0</v>
@@ -4968,10 +4968,10 @@
         <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0</v>
+        <v>0.62875160777017913</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="BJ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK24" s="0">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="BP24" s="0">
-        <v>0</v>
+        <v>0.93977320187865088</v>
       </c>
     </row>
     <row r="25">
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>0</v>
+        <v>0.92314377993003238</v>
       </c>
       <c r="I25" s="0">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="0">
-        <v>0</v>
+        <v>0.52609835275725869</v>
       </c>
       <c r="N25" s="0">
         <v>0</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="0">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="0">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="AT25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="0">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="BB25" s="0">
-        <v>0</v>
+        <v>0.79870489393785138</v>
       </c>
       <c r="BC25" s="0">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="0">
-        <v>0</v>
+        <v>0.91585426069058529</v>
       </c>
       <c r="AF26" s="0">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="0">
-        <v>0</v>
+        <v>0.55478501528327506</v>
       </c>
       <c r="AL26" s="0">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="0">
-        <v>0</v>
+        <v>0.77424273795130927</v>
       </c>
       <c r="BE26" s="0">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="0">
-        <v>0</v>
+        <v>0.60272872871660521</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="0">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.76567315907147548</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="AO27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="0">
         <v>0</v>
@@ -5637,10 +5637,10 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="0">
-        <v>0</v>
+        <v>0.77748853917756311</v>
       </c>
       <c r="BA27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="0">
         <v>0</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="BH27" s="0">
-        <v>0</v>
+        <v>0.79687711308113751</v>
       </c>
       <c r="BI27" s="0">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5777,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
-        <v>0</v>
+        <v>0.99694445402049525</v>
       </c>
       <c r="AF28" s="0">
         <v>0</v>
@@ -5822,16 +5822,16 @@
         <v>0</v>
       </c>
       <c r="AS28" s="0">
-        <v>0</v>
+        <v>0.89924952078268039</v>
       </c>
       <c r="AT28" s="0">
         <v>0</v>
       </c>
       <c r="AU28" s="0">
-        <v>0</v>
+        <v>0.92809180822590931</v>
       </c>
       <c r="AV28" s="0">
-        <v>0</v>
+        <v>0.99857591529133538</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5902,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="0">
-        <v>0</v>
+        <v>0.59460060236395629</v>
       </c>
       <c r="D29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="0">
-        <v>0</v>
+        <v>0.72984238941361057</v>
       </c>
       <c r="I29" s="0">
         <v>0</v>
@@ -5956,13 +5956,13 @@
         <v>0</v>
       </c>
       <c r="U29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="0">
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>0</v>
+        <v>0.58187953276894344</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.9585998391803936</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR29" s="0">
         <v>0</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="BL29" s="0">
-        <v>0</v>
+        <v>0.83998233851335136</v>
       </c>
       <c r="BM29" s="0">
         <v>0</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1</v>
+        <v>0.61808289407347439</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="0">
         <v>0</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="0">
-        <v>0</v>
+        <v>0.59545791291291972</v>
       </c>
       <c r="X30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="AG30" s="0">
-        <v>1</v>
+        <v>0.84870161013091727</v>
       </c>
       <c r="AH30" s="0">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="0">
-        <v>0</v>
+        <v>0.86706229737794493</v>
       </c>
       <c r="AT30" s="0">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="BF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG30" s="0">
         <v>0</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="0">
-        <v>0</v>
+        <v>0.97782300757894847</v>
       </c>
       <c r="C31" s="0">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="0">
         <v>0</v>
@@ -6383,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="Z31" s="0">
-        <v>0</v>
+        <v>0.80292287884286107</v>
       </c>
       <c r="AA31" s="0">
         <v>0</v>
       </c>
       <c r="AB31" s="0">
-        <v>0</v>
+        <v>0.63875854857963588</v>
       </c>
       <c r="AC31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="BB31" s="0">
-        <v>0</v>
+        <v>0.7691097844985374</v>
       </c>
       <c r="BC31" s="0">
         <v>0</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="BI31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ31" s="0">
         <v>0</v>
@@ -6503,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="BN31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP31" s="0">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="0">
-        <v>0</v>
+        <v>0.50913609955866579</v>
       </c>
       <c r="L32" s="0">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>0</v>
+        <v>0.90875633854099092</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.7590317631713136</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>0</v>
+        <v>0.63202757179712044</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AT32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="0">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="AZ32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="0">
         <v>0</v>
@@ -6807,10 +6807,10 @@
         <v>0</v>
       </c>
       <c r="AD33" s="0">
-        <v>1</v>
+        <v>0.75271483333971323</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="0">
-        <v>0</v>
+        <v>0.59879753060278929</v>
       </c>
       <c r="AQ33" s="0">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="AX33" s="0">
-        <v>0</v>
+        <v>0.7245158153036706</v>
       </c>
       <c r="AY33" s="0">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="BB33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="0">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="0">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="0">
-        <v>0</v>
+        <v>0.76795164995569554</v>
       </c>
       <c r="Q34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.93455159323573733</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="0">
-        <v>0</v>
+        <v>0.69762892723944192</v>
       </c>
       <c r="AN34" s="0">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE34" s="0">
         <v>0</v>
@@ -7127,12 +7127,12 @@
         <v>0</v>
       </c>
       <c r="BP34" s="0">
-        <v>0</v>
+        <v>0.51874900442450578</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0</v>
+        <v>0.93843823635848111</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="0">
         <v>0</v>
@@ -7201,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="0">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="BI35" s="0">
-        <v>0</v>
+        <v>0.62274709889229873</v>
       </c>
       <c r="BJ35" s="0">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="BL35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM35" s="0">
         <v>0</v>
@@ -7344,13 +7344,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>0</v>
+        <v>0.66149205024519819</v>
       </c>
       <c r="E36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="0">
         <v>0</v>
@@ -7401,13 +7401,13 @@
         <v>0</v>
       </c>
       <c r="V36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="0">
         <v>0</v>
       </c>
       <c r="X36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.71529274243007979</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="0">
-        <v>0</v>
+        <v>0.70916009991352646</v>
       </c>
       <c r="AR36" s="0">
         <v>0</v>
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="0">
         <v>0</v>
@@ -7616,10 +7616,10 @@
         <v>0</v>
       </c>
       <c r="Y37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="0">
-        <v>0</v>
+        <v>0.78353447653310404</v>
       </c>
       <c r="AA37" s="0">
         <v>0</v>
@@ -7649,16 +7649,16 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.73977458114625028</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.78846833319812371</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.6068520970095258</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="0">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
@@ -7765,10 +7765,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="0">
-        <v>0</v>
+        <v>0.76731503398975298</v>
       </c>
       <c r="G38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.98033920050757184</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="AU38" s="0">
-        <v>0</v>
+        <v>0.91771546492701173</v>
       </c>
       <c r="AV38" s="0">
         <v>0</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="BA38" s="0">
-        <v>0</v>
+        <v>0.56003084314632479</v>
       </c>
       <c r="BB38" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="0">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="0">
-        <v>0</v>
+        <v>0.74015316018354826</v>
       </c>
       <c r="AI39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.52075008416778257</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8079,13 +8079,13 @@
         <v>0</v>
       </c>
       <c r="AP39" s="0">
-        <v>0</v>
+        <v>0.96399194093546747</v>
       </c>
       <c r="AQ39" s="0">
         <v>0</v>
       </c>
       <c r="AR39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="0">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="AX39" s="0">
-        <v>0</v>
+        <v>0.52439833914457401</v>
       </c>
       <c r="AY39" s="0">
         <v>0</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="BG39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="0">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="BM39" s="0">
-        <v>0</v>
+        <v>0.63840692126489096</v>
       </c>
       <c r="BN39" s="0">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="0">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="0">
-        <v>0</v>
+        <v>0.6775752401487104</v>
       </c>
       <c r="S40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8285,16 +8285,16 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.58919340017688948</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
       </c>
       <c r="AR40" s="0">
-        <v>0</v>
+        <v>0.93638470422621345</v>
       </c>
       <c r="AS40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="0">
         <v>0</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="0">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>0</v>
+        <v>0.69232051789724025</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8548,13 +8548,13 @@
         <v>0</v>
       </c>
       <c r="BI41" s="0">
-        <v>0</v>
+        <v>0.85719654128259504</v>
       </c>
       <c r="BJ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK41" s="0">
-        <v>0</v>
+        <v>0.8028525638859918</v>
       </c>
       <c r="BL41" s="0">
         <v>0</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -8613,13 +8613,13 @@
         <v>0</v>
       </c>
       <c r="N42" s="0">
-        <v>0</v>
+        <v>0.98136253310154209</v>
       </c>
       <c r="O42" s="0">
         <v>0</v>
       </c>
       <c r="P42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="0">
         <v>0</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="0">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="AG42" s="0">
-        <v>0</v>
+        <v>0.94687868588977731</v>
       </c>
       <c r="AH42" s="0">
         <v>0</v>
@@ -8688,10 +8688,10 @@
         <v>0</v>
       </c>
       <c r="AM42" s="0">
-        <v>0</v>
+        <v>0.93941020365081651</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.91516434642614408</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="BM42" s="0">
-        <v>0</v>
+        <v>0.62380581617135533</v>
       </c>
       <c r="BN42" s="0">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>0</v>
+        <v>0.61337009152266297</v>
       </c>
       <c r="U43" s="0">
         <v>0</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="0">
         <v>0</v>
@@ -8885,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="0">
-        <v>0</v>
+        <v>0.59707596178659395</v>
       </c>
       <c r="AK43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="0">
         <v>0</v>
@@ -8912,13 +8912,13 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
       </c>
       <c r="AU43" s="0">
-        <v>0</v>
+        <v>0.52115697899618807</v>
       </c>
       <c r="AV43" s="0">
         <v>0</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="BB43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC43" s="0">
         <v>0</v>
       </c>
       <c r="BD43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE43" s="0">
         <v>0</v>
@@ -8972,10 +8972,10 @@
         <v>0</v>
       </c>
       <c r="BM43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN43" s="0">
-        <v>0</v>
+        <v>0.60669604197985605</v>
       </c>
       <c r="BO43" s="0">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="0">
-        <v>0</v>
+        <v>0.88478743523419667</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="0">
         <v>0</v>
@@ -9100,16 +9100,16 @@
         <v>0</v>
       </c>
       <c r="AM44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN44" s="0">
-        <v>0</v>
+        <v>0.53444283107386026</v>
       </c>
       <c r="AO44" s="0">
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.76501166802393927</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="BF44" s="0">
-        <v>1</v>
+        <v>0.63272743410843968</v>
       </c>
       <c r="BG44" s="0">
         <v>0</v>
@@ -9210,10 +9210,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="0">
-        <v>0</v>
+        <v>0.61680746624790617</v>
       </c>
       <c r="I45" s="0">
         <v>0</v>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="0">
-        <v>0</v>
+        <v>0.67444973211006065</v>
       </c>
       <c r="M45" s="0">
         <v>0</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="U45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
@@ -9273,13 +9273,13 @@
         <v>0</v>
       </c>
       <c r="AB45" s="0">
-        <v>0</v>
+        <v>0.71810092393056102</v>
       </c>
       <c r="AC45" s="0">
         <v>0</v>
       </c>
       <c r="AD45" s="0">
-        <v>0</v>
+        <v>0.97454223799571205</v>
       </c>
       <c r="AE45" s="0">
         <v>0</v>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="AN45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO45" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.97662508657104108</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="BB45" s="0">
-        <v>0</v>
+        <v>0.63008632823238364</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
@@ -9360,13 +9360,13 @@
         <v>0</v>
       </c>
       <c r="BE45" s="0">
-        <v>1</v>
+        <v>0.51481062528918997</v>
       </c>
       <c r="BF45" s="0">
         <v>0</v>
       </c>
       <c r="BG45" s="0">
-        <v>0</v>
+        <v>0.61828005536826836</v>
       </c>
       <c r="BH45" s="0">
         <v>0</v>
@@ -9440,13 +9440,13 @@
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="0">
         <v>0</v>
@@ -9470,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="0">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="AF46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="0">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.81965915405513867</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.58509720625941286</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9557,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="BB46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC46" s="0">
         <v>0</v>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="0">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="0">
-        <v>0</v>
+        <v>0.55362357950937491</v>
       </c>
       <c r="AC47" s="0">
         <v>0</v>
@@ -9715,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="0">
-        <v>0</v>
+        <v>0.88166896514207438</v>
       </c>
       <c r="AM47" s="0">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="0">
-        <v>0</v>
+        <v>0.69155934008379571</v>
       </c>
       <c r="AR47" s="0">
         <v>0</v>
@@ -9739,13 +9739,13 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.79192982408847046</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.54192159375631999</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9754,10 +9754,10 @@
         <v>0</v>
       </c>
       <c r="AY47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA47" s="0">
         <v>0</v>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="BC47" s="0">
-        <v>0</v>
+        <v>0.95693548435820608</v>
       </c>
       <c r="BD47" s="0">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="0">
-        <v>0</v>
+        <v>0.5512652398136253</v>
       </c>
       <c r="BK47" s="0">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9816,10 +9816,10 @@
         <v>0</v>
       </c>
       <c r="C48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>0</v>
+        <v>0.63008157810888843</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="0">
         <v>0</v>
@@ -9876,10 +9876,10 @@
         <v>0</v>
       </c>
       <c r="W48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>0</v>
+        <v>0.74314235496907133</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>0</v>
+        <v>0.88520747791120824</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9945,16 +9945,16 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.74841735196314219</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.64489359247480915</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.85690499498457717</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>0</v>
+        <v>0.65985740827386041</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
@@ -10049,16 +10049,16 @@
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>0</v>
+        <v>0.69656297511357645</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" s="0">
-        <v>0</v>
+        <v>0.84690002304827927</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.99957416983464686</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="BL49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM49" s="0">
         <v>0</v>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="BP49" s="0">
-        <v>0</v>
+        <v>0.73355661104639758</v>
       </c>
     </row>
     <row r="50">
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="0">
-        <v>0</v>
+        <v>0.91390862069183165</v>
       </c>
       <c r="E50" s="0">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="0">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>0</v>
+        <v>0.74104092115426212</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="0">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="AG50" s="0">
-        <v>0</v>
+        <v>0.79125928252330979</v>
       </c>
       <c r="AH50" s="0">
         <v>0</v>
@@ -10336,10 +10336,10 @@
         <v>0</v>
       </c>
       <c r="AM50" s="0">
-        <v>0</v>
+        <v>0.73345934090413956</v>
       </c>
       <c r="AN50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="0">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="0">
-        <v>0</v>
+        <v>0.60137634235878856</v>
       </c>
       <c r="Q51" s="0">
         <v>0</v>
@@ -10482,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="S51" s="0">
-        <v>0</v>
+        <v>0.64784591121551005</v>
       </c>
       <c r="T51" s="0">
         <v>0</v>
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="AU51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="0">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.9313631712151802</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="BM51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN51" s="0">
         <v>0</v>
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="0">
-        <v>0</v>
+        <v>0.51930849078787311</v>
       </c>
       <c r="F52" s="0">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="0">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>0</v>
+        <v>0.72536120557645534</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="AF52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="0">
         <v>0</v>
@@ -10772,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="AU52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV52" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.71248209634934678</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="BC52" s="0">
-        <v>0</v>
+        <v>0.75401311779493163</v>
       </c>
       <c r="BD52" s="0">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="BO52" s="0">
-        <v>0</v>
+        <v>0.51906273001435932</v>
       </c>
       <c r="BP52" s="0">
         <v>0</v>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>0</v>
+        <v>0.69674266404313068</v>
       </c>
       <c r="H53" s="0">
         <v>0</v>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="0">
-        <v>0</v>
+        <v>0.72088184976378633</v>
       </c>
       <c r="W53" s="0">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="AA53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="0">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>0</v>
+        <v>0.51785680535027312</v>
       </c>
       <c r="AM53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="BG53" s="0">
-        <v>0</v>
+        <v>0.90735964560383509</v>
       </c>
       <c r="BH53" s="0">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -11070,13 +11070,13 @@
         <v>0</v>
       </c>
       <c r="I54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="0">
-        <v>0</v>
+        <v>0.61159906845890255</v>
       </c>
       <c r="K54" s="0">
-        <v>0</v>
+        <v>0.78795775972401394</v>
       </c>
       <c r="L54" s="0">
         <v>0</v>
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="0">
-        <v>0</v>
+        <v>0.83671140819469969</v>
       </c>
       <c r="T54" s="0">
         <v>0</v>
@@ -11118,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="0">
-        <v>0</v>
+        <v>0.61979242106057986</v>
       </c>
       <c r="Z54" s="0">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>0</v>
       </c>
       <c r="AE54" s="0">
-        <v>0</v>
+        <v>0.69859446698705063</v>
       </c>
       <c r="AF54" s="0">
         <v>0</v>
       </c>
       <c r="AG54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54" s="0">
         <v>0</v>
@@ -11172,16 +11172,16 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR54" s="0">
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>0</v>
+        <v>0.59894721887615221</v>
       </c>
       <c r="AT54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU54" s="0">
         <v>0</v>
@@ -11211,13 +11211,13 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
       </c>
       <c r="BF54" s="0">
-        <v>0</v>
+        <v>0.92911022595938575</v>
       </c>
       <c r="BG54" s="0">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="BK54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL54" s="0">
         <v>0</v>
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="BO54" s="0">
-        <v>0</v>
+        <v>0.86652977669415454</v>
       </c>
       <c r="BP54" s="0">
         <v>0</v>
@@ -11264,10 +11264,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>0</v>
+        <v>0.62155502699294862</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>0</v>
+        <v>0.59792731891950723</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>0</v>
+        <v>0.50983386354448423</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11405,7 +11405,7 @@
         <v>0</v>
       </c>
       <c r="AZ55" s="0">
-        <v>0</v>
+        <v>0.85719545436743216</v>
       </c>
       <c r="BA55" s="0">
         <v>0</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="BG55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH55" s="0">
         <v>0</v>
@@ -11447,18 +11447,18 @@
         <v>0</v>
       </c>
       <c r="BN55" s="0">
-        <v>1</v>
+        <v>0.99854571791002766</v>
       </c>
       <c r="BO55" s="0">
         <v>0</v>
       </c>
       <c r="BP55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0</v>
+        <v>0.88005640927636475</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="0">
         <v>0</v>
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="0">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="0">
-        <v>0</v>
+        <v>0.98351357633920378</v>
       </c>
       <c r="AA56" s="0">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AH56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI56" s="0">
         <v>0</v>
@@ -11584,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="0">
-        <v>0</v>
+        <v>0.58759953990460889</v>
       </c>
       <c r="J57" s="0">
         <v>0</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="0">
-        <v>1</v>
+        <v>0.90711250699197021</v>
       </c>
       <c r="AT57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0</v>
+        <v>0.83147136999108895</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="BN57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO57" s="0">
         <v>0</v>
@@ -11870,7 +11870,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58" s="0">
         <v>0</v>
@@ -11957,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="AD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="0">
         <v>0</v>
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="AR58" s="0">
-        <v>1</v>
+        <v>0.82886382646105616</v>
       </c>
       <c r="AS58" s="0">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="BB58" s="0">
-        <v>0</v>
+        <v>0.76580116937403742</v>
       </c>
       <c r="BC58" s="0">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="BL58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM58" s="0">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>0</v>
+        <v>0.68849808931190071</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AM59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="0">
         <v>0</v>
@@ -12208,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="0">
-        <v>0</v>
+        <v>0.94709789554862278</v>
       </c>
       <c r="AT59" s="0">
         <v>0</v>
@@ -12232,19 +12232,19 @@
         <v>0</v>
       </c>
       <c r="BA59" s="0">
-        <v>0</v>
+        <v>0.87321506360994372</v>
       </c>
       <c r="BB59" s="0">
         <v>0</v>
       </c>
       <c r="BC59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD59" s="0">
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0</v>
+        <v>0.76759808943142827</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="BL59" s="0">
-        <v>0</v>
+        <v>0.67613943461692694</v>
       </c>
       <c r="BM59" s="0">
         <v>0</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="0">
-        <v>0</v>
+        <v>0.50619895249733926</v>
       </c>
       <c r="C60" s="0">
         <v>0</v>
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="0">
-        <v>0</v>
+        <v>0.58316691239511398</v>
       </c>
       <c r="K60" s="0">
         <v>0</v>
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" s="0">
         <v>0</v>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="0">
-        <v>0</v>
+        <v>0.58477763540684591</v>
       </c>
       <c r="W60" s="0">
         <v>0</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="0">
-        <v>0</v>
+        <v>0.52854976301430068</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.78130885026153263</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="BN60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO60" s="0">
         <v>0</v>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>0</v>
+        <v>0.50036553757493984</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="0">
         <v>0</v>
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="AI61" s="0">
-        <v>0</v>
+        <v>0.76052740249049622</v>
       </c>
       <c r="AJ61" s="0">
         <v>0</v>
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="AO61" s="0">
-        <v>0</v>
+        <v>0.7255813332576313</v>
       </c>
       <c r="AP61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.71046274406747489</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12727,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="0">
-        <v>0</v>
+        <v>0.70136443151302597</v>
       </c>
       <c r="M62" s="0">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="0">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="AO62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP62" s="0">
         <v>0</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>0</v>
+        <v>0.94492674225128437</v>
       </c>
       <c r="AV62" s="0">
         <v>0</v>
@@ -12871,16 +12871,16 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.786513090385072</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.89736585945951086</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>0</v>
+        <v>0.64690207894099427</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63" s="0">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="AO63" s="0">
-        <v>0</v>
+        <v>0.68529432837209292</v>
       </c>
       <c r="AP63" s="0">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="BB63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC63" s="0">
         <v>0</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13092,13 +13092,13 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
       </c>
       <c r="BO63" s="0">
-        <v>0</v>
+        <v>0.71471318572981335</v>
       </c>
       <c r="BP63" s="0">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="0">
-        <v>0</v>
+        <v>0.9237836381641894</v>
       </c>
       <c r="I64" s="0">
         <v>0</v>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="0">
-        <v>0</v>
+        <v>0.55450383260828173</v>
       </c>
       <c r="AD64" s="0">
         <v>0</v>
@@ -13208,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="AI64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="0">
         <v>0</v>
@@ -13250,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="AW64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX64" s="0">
         <v>0</v>
@@ -13277,10 +13277,10 @@
         <v>0</v>
       </c>
       <c r="BF64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG64" s="0">
-        <v>0</v>
+        <v>0.65600352141526153</v>
       </c>
       <c r="BH64" s="0">
         <v>0</v>
@@ -13304,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="BO64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP64" s="0">
         <v>0</v>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="0">
         <v>0</v>
@@ -13378,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="W65" s="0">
-        <v>0</v>
+        <v>0.66763186613612224</v>
       </c>
       <c r="X65" s="0">
         <v>0</v>
@@ -13426,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="AM65" s="0">
-        <v>0</v>
+        <v>0.97020324619026255</v>
       </c>
       <c r="AN65" s="0">
         <v>0</v>
@@ -13435,10 +13435,10 @@
         <v>0</v>
       </c>
       <c r="AP65" s="0">
-        <v>0</v>
+        <v>0.74162429418846387</v>
       </c>
       <c r="AQ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="AY65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>0</v>
+        <v>0.77488118219104429</v>
       </c>
       <c r="R66" s="0">
         <v>0</v>
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="0">
         <v>0</v>
@@ -13644,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="0">
-        <v>0</v>
+        <v>0.5220548034427841</v>
       </c>
       <c r="AR66" s="0">
         <v>0</v>
@@ -13680,13 +13680,13 @@
         <v>0</v>
       </c>
       <c r="BC66" s="0">
-        <v>1</v>
+        <v>0.62628543281916693</v>
       </c>
       <c r="BD66" s="0">
         <v>0</v>
       </c>
       <c r="BE66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF66" s="0">
         <v>0</v>
@@ -13695,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="BH66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.85822885282387373</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13814,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="0">
         <v>0</v>
@@ -13877,13 +13877,13 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="0">
-        <v>0</v>
+        <v>0.57177841975975463</v>
       </c>
       <c r="BA67" s="0">
         <v>0</v>
       </c>
       <c r="BB67" s="0">
-        <v>0</v>
+        <v>0.84221858939142435</v>
       </c>
       <c r="BC67" s="0">
         <v>0</v>
@@ -13910,22 +13910,22 @@
         <v>0</v>
       </c>
       <c r="BK67" s="0">
-        <v>0</v>
+        <v>0.57379067033126585</v>
       </c>
       <c r="BL67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.52140624056652518</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.94112147051507122</v>
       </c>
     </row>
     <row r="68">
@@ -13936,7 +13936,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="0">
-        <v>0</v>
+        <v>0.67284122296081716</v>
       </c>
       <c r="D68" s="0">
         <v>0</v>
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="0">
-        <v>0</v>
+        <v>0.86774824600444733</v>
       </c>
       <c r="G68" s="0">
         <v>0</v>
@@ -13969,7 +13969,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="0">
         <v>0</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0">
-        <v>0</v>
+        <v>0.73634692742274521</v>
       </c>
       <c r="Y68" s="0">
         <v>0</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AH68" s="0">
-        <v>0</v>
+        <v>0.80960632778948582</v>
       </c>
       <c r="AI68" s="0">
         <v>0</v>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="AW68" s="0">
-        <v>0</v>
+        <v>0.61898660680938034</v>
       </c>
       <c r="AX68" s="0">
         <v>0</v>
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.68142805382725857</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject13.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject13.xlsx
@@ -61,7 +61,7 @@
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="12.7109375" customWidth="true"/>
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0.92125172924424881</v>
+        <v>0.96741979120513899</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -230,7 +230,7 @@
         <v>0</v>
       </c>
       <c r="AI1" s="0">
-        <v>0.64043510519355462</v>
+        <v>0.93843823635848111</v>
       </c>
       <c r="AJ1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>0.51860389007876562</v>
+        <v>0.88005640927636475</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="0">
-        <v>0.61063102001446867</v>
+        <v>0.97782300757894847</v>
       </c>
       <c r="AF2" s="0">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="0">
-        <v>0.50212396942231841</v>
+        <v>0.62538169999967552</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="0">
-        <v>0.55820336633880807</v>
+        <v>0.88478743523419667</v>
       </c>
       <c r="AS3" s="0">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="BP3" s="0">
-        <v>0.61522232046724956</v>
+        <v>0.67284122296081716</v>
       </c>
     </row>
     <row r="4">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.58381661614330649</v>
+        <v>0.84345454920206375</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="0">
-        <v>0.90364187071349178</v>
+        <v>0.91390862069183165</v>
       </c>
       <c r="AY4" s="0">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="0">
-        <v>0.68886136289023514</v>
+        <v>0.86774824600444733</v>
       </c>
     </row>
     <row r="7">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.59869842398493556</v>
+        <v>0.74291840323938096</v>
       </c>
       <c r="F8" s="0">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="0">
-        <v>0.58274631509293617</v>
+        <v>0.61680746624790617</v>
       </c>
       <c r="AT8" s="0">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>0.52404653363918252</v>
+        <v>0.66574116328681043</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="0">
-        <v>0.58650767363380285</v>
+        <v>0.92383390101454321</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="BB11" s="0">
-        <v>0.77901700402224106</v>
+        <v>0.78795775972401394</v>
       </c>
       <c r="BC11" s="0">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>0.74394448425742021</v>
+        <v>0.89760865954429303</v>
       </c>
       <c r="S12" s="0">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>0.54468457631884604</v>
+        <v>0.69656297511357645</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="0">
-        <v>0.55362130667664511</v>
+        <v>0.64888010963196763</v>
       </c>
       <c r="J13" s="0">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="0">
-        <v>0.81242757799766341</v>
+        <v>0.98136253310154209</v>
       </c>
       <c r="AQ14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.83341076830408778</v>
+        <v>0.95211631032171917</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="AW15" s="0">
-        <v>0.58177890269738475</v>
+        <v>0.84690002304827927</v>
       </c>
       <c r="AX15" s="0">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="0">
-        <v>0.69147309004419544</v>
+        <v>0.83981865845490289</v>
       </c>
       <c r="F16" s="0">
         <v>0</v>
       </c>
       <c r="G16" s="0">
-        <v>0.56162400705815507</v>
+        <v>0.80377075344077076</v>
       </c>
       <c r="H16" s="0">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>0.56169987895036866</v>
+        <v>0.76795164995569554</v>
       </c>
       <c r="AI16" s="0">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="0">
-        <v>0.62539387348972297</v>
+        <v>0.93909208890591378</v>
       </c>
       <c r="X17" s="0">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="BN17" s="0">
-        <v>0.72681876935267098</v>
+        <v>0.77488118219104429</v>
       </c>
       <c r="BO17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.58330765657642347</v>
+        <v>0.94016375257205831</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="0">
-        <v>0.53746831428057151</v>
+        <v>0.6775752401487104</v>
       </c>
       <c r="AO18" s="0">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>0.87661766456570478</v>
+        <v>0.98371646865993445</v>
       </c>
       <c r="O19" s="0">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0.99079001351526852</v>
       </c>
       <c r="AY19" s="0">
-        <v>0.50791598939150373</v>
+        <v>0.64784591121551005</v>
       </c>
       <c r="AZ19" s="0">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="BB19" s="0">
-        <v>0.7131743815782029</v>
+        <v>0.83671140819469969</v>
       </c>
       <c r="BC19" s="0">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="0">
-        <v>0.56863599943361254</v>
+        <v>0.74021495740510457</v>
       </c>
       <c r="X20" s="0">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="0">
-        <v>0.61931357141274002</v>
+        <v>0.95434457892041857</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.69718433863139651</v>
+        <v>0.90255814318588601</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>0.62504264549809163</v>
+        <v>0.90875633854099092</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>0.85477711294942216</v>
+        <v>0.96620871371629824</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="BH22" s="0">
-        <v>0.55906258903937112</v>
+        <v>0.58477763540684591</v>
       </c>
       <c r="BI22" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.69949610664037132</v>
+        <v>0.97970065688562158</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="BM23" s="0">
-        <v>0.53326542531322951</v>
+        <v>0.66763186613612224</v>
       </c>
       <c r="BN23" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0.62875160777017913</v>
+        <v>0.74314235496907133</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>0.92314377993003238</v>
+        <v>0.96761269856471177</v>
       </c>
       <c r="I25" s="0">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="0">
-        <v>0.52609835275725869</v>
+        <v>0.85448025077759104</v>
       </c>
       <c r="N25" s="0">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="0">
-        <v>0.55478501528327506</v>
+        <v>0.78353447653310404</v>
       </c>
       <c r="AL26" s="0">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="0">
-        <v>0.77424273795130927</v>
+        <v>0.98351357633920378</v>
       </c>
       <c r="BE26" s="0">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="0">
-        <v>0.60272872871660521</v>
+        <v>0.64705813378909771</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.76567315907147548</v>
+        <v>0.9585998391803936</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="0">
-        <v>0.59460060236395629</v>
+        <v>0.84111947805488663</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="0">
-        <v>0.72984238941361057</v>
+        <v>0.99191241794941276</v>
       </c>
       <c r="I29" s="0">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>0.58187953276894344</v>
+        <v>0.7383413745281191</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.61808289407347439</v>
+        <v>0.97262432735917359</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="0">
-        <v>0.59545791291291972</v>
+        <v>0.79564868878137518</v>
       </c>
       <c r="X30" s="0">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="0">
-        <v>0.86706229737794493</v>
+        <v>0.97454223799571205</v>
       </c>
       <c r="AT30" s="0">
         <v>0</v>
@@ -6383,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="Z31" s="0">
-        <v>0.80292287884286107</v>
+        <v>0.91585426069058529</v>
       </c>
       <c r="AA31" s="0">
         <v>0</v>
       </c>
       <c r="AB31" s="0">
-        <v>0.63875854857963588</v>
+        <v>0.99694445402049525</v>
       </c>
       <c r="AC31" s="0">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="0">
-        <v>0.50913609955866579</v>
+        <v>0.55368730836901481</v>
       </c>
       <c r="L32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.7590317631713136</v>
+        <v>0.93455159323573733</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>0.63202757179712044</v>
+        <v>0.69232051789724025</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="0">
-        <v>0.75271483333971323</v>
+        <v>0.84870161013091727</v>
       </c>
       <c r="AE33" s="0">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="0">
-        <v>0.59879753060278929</v>
+        <v>0.94687868588977731</v>
       </c>
       <c r="AQ33" s="0">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="AX33" s="0">
-        <v>0.7245158153036706</v>
+        <v>0.79125928252330979</v>
       </c>
       <c r="AY33" s="0">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="0">
-        <v>0.69762892723944192</v>
+        <v>0.74015316018354826</v>
       </c>
       <c r="AN34" s="0">
         <v>0</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="BP34" s="0">
-        <v>0.51874900442450578</v>
+        <v>0.80960632778948582</v>
       </c>
     </row>
     <row r="35">
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="BI35" s="0">
-        <v>0.62274709889229873</v>
+        <v>0.76052740249049622</v>
       </c>
       <c r="BJ35" s="0">
         <v>0</v>
@@ -7347,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="0">
-        <v>0.66149205024519819</v>
+        <v>0.75739267416087597</v>
       </c>
       <c r="E36" s="0">
         <v>0</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.71529274243007979</v>
+        <v>0.73977458114625028</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.78846833319812371</v>
+        <v>0.98033920050757184</v>
       </c>
       <c r="AM37" s="0">
         <v>0.6068520970095258</v>
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="0">
-        <v>0.76731503398975298</v>
+        <v>0.95676278705551376</v>
       </c>
       <c r="G38" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.52075008416778257</v>
+        <v>0.6068520970095258</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="AX39" s="0">
-        <v>0.52439833914457401</v>
+        <v>0.73345934090413956</v>
       </c>
       <c r="AY39" s="0">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="BM39" s="0">
-        <v>0.63840692126489096</v>
+        <v>0.97020324619026255</v>
       </c>
       <c r="BN39" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.58919340017688948</v>
+        <v>0.91516434642614408</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="AM42" s="0">
-        <v>0.93941020365081651</v>
+        <v>0.96399194093546747</v>
       </c>
       <c r="AN42" s="0">
         <v>0.91516434642614408</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="BM42" s="0">
-        <v>0.62380581617135533</v>
+        <v>0.74162429418846387</v>
       </c>
       <c r="BN42" s="0">
         <v>0</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>0.61337009152266297</v>
+        <v>0.93487439631897407</v>
       </c>
       <c r="U43" s="0">
         <v>0</v>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="0">
-        <v>0.59707596178659395</v>
+        <v>0.70916009991352646</v>
       </c>
       <c r="AK43" s="0">
         <v>0</v>
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="AU43" s="0">
-        <v>0.52115697899618807</v>
+        <v>0.69155934008379571</v>
       </c>
       <c r="AV43" s="0">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="0">
-        <v>0.53444283107386026</v>
+        <v>0.93638470422621345</v>
       </c>
       <c r="AO44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.76501166802393927</v>
+        <v>0.97662508657104108</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="BF44" s="0">
-        <v>0.63272743410843968</v>
+        <v>0.82886382646105616</v>
       </c>
       <c r="BG44" s="0">
         <v>0</v>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="0">
-        <v>0.67444973211006065</v>
+        <v>0.81165335098460067</v>
       </c>
       <c r="M45" s="0">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="0">
-        <v>0.71810092393056102</v>
+        <v>0.89924952078268039</v>
       </c>
       <c r="AC45" s="0">
         <v>0</v>
@@ -9360,13 +9360,13 @@
         <v>0</v>
       </c>
       <c r="BE45" s="0">
-        <v>0.51481062528918997</v>
+        <v>0.90711250699197021</v>
       </c>
       <c r="BF45" s="0">
         <v>0</v>
       </c>
       <c r="BG45" s="0">
-        <v>0.61828005536826836</v>
+        <v>0.94709789554862278</v>
       </c>
       <c r="BH45" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0.81965915405513867</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.58509720625941286</v>
+        <v>0.74841735196314219</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="0">
-        <v>0.55362357950937491</v>
+        <v>0.92809180822590931</v>
       </c>
       <c r="AC47" s="0">
         <v>0</v>
@@ -9715,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="0">
-        <v>0.88166896514207438</v>
+        <v>0.91771546492701173</v>
       </c>
       <c r="AM47" s="0">
         <v>0</v>
@@ -9739,13 +9739,13 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.79192982408847046</v>
+        <v>0.81965915405513867</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.54192159375631999</v>
+        <v>0.64489359247480915</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="0">
-        <v>0.5512652398136253</v>
+        <v>0.94492674225128437</v>
       </c>
       <c r="BK47" s="0">
         <v>0</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>0.63008157810888843</v>
+        <v>0.91858340057547594</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>0.88520747791120824</v>
+        <v>0.99857591529133538</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.85690499498457717</v>
+        <v>0.99957416983464686</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>0.65985740827386041</v>
+        <v>0.73828883310873095</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="0">
-        <v>0.74104092115426212</v>
+        <v>0.99079001351526852</v>
       </c>
       <c r="T50" s="0">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="0">
-        <v>0.60137634235878856</v>
+        <v>0.70201599185253216</v>
       </c>
       <c r="Q51" s="0">
         <v>0</v>
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="0">
-        <v>0.51930849078787311</v>
+        <v>0.64627546504165245</v>
       </c>
       <c r="F52" s="0">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>0.72536120557645534</v>
+        <v>0.77748853917756311</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.71248209634934678</v>
+        <v>0.9313631712151802</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="BC52" s="0">
-        <v>0.75401311779493163</v>
+        <v>0.85719545436743216</v>
       </c>
       <c r="BD52" s="0">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="BO52" s="0">
-        <v>0.51906273001435932</v>
+        <v>0.57177841975975463</v>
       </c>
       <c r="BP52" s="0">
         <v>0</v>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="0">
-        <v>0.69674266404313068</v>
+        <v>0.98782612904160672</v>
       </c>
       <c r="H53" s="0">
         <v>0</v>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="0">
-        <v>0.72088184976378633</v>
+        <v>0.85921464394131353</v>
       </c>
       <c r="W53" s="0">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="AL53" s="0">
-        <v>0.51785680535027312</v>
+        <v>0.56003084314632479</v>
       </c>
       <c r="AM53" s="0">
         <v>0</v>
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="0">
-        <v>0.61159906845890255</v>
+        <v>0.8930563346290501</v>
       </c>
       <c r="K54" s="0">
         <v>0.78795775972401394</v>
@@ -11118,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="0">
-        <v>0.61979242106057986</v>
+        <v>0.79870489393785138</v>
       </c>
       <c r="Z54" s="0">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="AE54" s="0">
-        <v>0.69859446698705063</v>
+        <v>0.7691097844985374</v>
       </c>
       <c r="AF54" s="0">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>0.59894721887615221</v>
+        <v>0.63008632823238364</v>
       </c>
       <c r="AT54" s="0">
         <v>0</v>
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>0.62155502699294862</v>
+        <v>0.92000482092314007</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>0.59792731891950723</v>
+        <v>0.65925395456042146</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="AU55" s="0">
-        <v>0.50983386354448423</v>
+        <v>0.95693548435820608</v>
       </c>
       <c r="AV55" s="0">
         <v>0</v>
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="0">
-        <v>0.58759953990460889</v>
+        <v>0.63999410313778271</v>
       </c>
       <c r="J57" s="0">
         <v>0</v>
@@ -12029,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="BB58" s="0">
-        <v>0.76580116937403742</v>
+        <v>0.92911022595938575</v>
       </c>
       <c r="BC58" s="0">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>0.68849808931190071</v>
+        <v>0.70607758576492752</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="BA59" s="0">
-        <v>0.87321506360994372</v>
+        <v>0.90735964560383509</v>
       </c>
       <c r="BB59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.76759808943142827</v>
+        <v>0.83147136999108895</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="0">
-        <v>0.50619895249733926</v>
+        <v>0.6725938755650045</v>
       </c>
       <c r="C60" s="0">
         <v>0</v>
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="0">
-        <v>0.58316691239511398</v>
+        <v>0.85428119263253699</v>
       </c>
       <c r="K60" s="0">
         <v>0</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="0">
-        <v>0.52854976301430068</v>
+        <v>0.79687711308113751</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.78130885026153263</v>
+        <v>0.786513090385072</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>0.50036553757493984</v>
+        <v>0.7204567254880313</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="AO61" s="0">
-        <v>0.7255813332576313</v>
+        <v>0.85719654128259504</v>
       </c>
       <c r="AP61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.71046274406747489</v>
+        <v>0.89736585945951086</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12727,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="0">
-        <v>0.70136443151302597</v>
+        <v>0.93754350186068658</v>
       </c>
       <c r="M62" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>0.64690207894099427</v>
+        <v>0.96778363965777425</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="AO63" s="0">
-        <v>0.68529432837209292</v>
+        <v>0.8028525638859918</v>
       </c>
       <c r="AP63" s="0">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="0">
-        <v>0.9237836381641894</v>
+        <v>0.93759521000310886</v>
       </c>
       <c r="I64" s="0">
         <v>0</v>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="0">
-        <v>0.55450383260828173</v>
+        <v>0.83998233851335136</v>
       </c>
       <c r="AD64" s="0">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="BG64" s="0">
-        <v>0.65600352141526153</v>
+        <v>0.67613943461692694</v>
       </c>
       <c r="BH64" s="0">
         <v>0</v>
@@ -13644,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="0">
-        <v>0.5220548034427841</v>
+        <v>0.60669604197985605</v>
       </c>
       <c r="AR66" s="0">
         <v>0</v>
@@ -13680,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="BC66" s="0">
-        <v>0.62628543281916693</v>
+        <v>0.99854571791002766</v>
       </c>
       <c r="BD66" s="0">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="BB67" s="0">
-        <v>0.84221858939142435</v>
+        <v>0.86652977669415454</v>
       </c>
       <c r="BC67" s="0">
         <v>0</v>
@@ -13910,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="BK67" s="0">
-        <v>0.57379067033126585</v>
+        <v>0.71471318572981335</v>
       </c>
       <c r="BL67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.52140624056652518</v>
+        <v>0.85822885282387373</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0">
-        <v>0.73634692742274521</v>
+        <v>0.93977320187865088</v>
       </c>
       <c r="Y68" s="0">
         <v>0</v>
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="AW68" s="0">
-        <v>0.61898660680938034</v>
+        <v>0.73355661104639758</v>
       </c>
       <c r="AX68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.68142805382725857</v>
+        <v>0.94112147051507122</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
